--- a/docs/Planification.xlsx
+++ b/docs/Planification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>Temps nécessaire</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Analyse</t>
+  </si>
+  <si>
+    <t>Use-case</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2144,10 +2147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,7 +2246,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="13"/>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N39" si="0">SUM(C3:M3)</f>
+        <f t="shared" ref="N3:N40" si="0">SUM(C3:M3)</f>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2324,13 +2327,15 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" s="18">
-        <v>0.16666666666666666</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="12"/>
       <c r="G7" s="4"/>
@@ -2340,26 +2345,25 @@
       <c r="K7" s="12"/>
       <c r="L7" s="4"/>
       <c r="M7" s="13"/>
-      <c r="N7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="37"/>
+      <c r="A8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="13"/>
       <c r="N8" s="3">
         <f t="shared" si="0"/>
@@ -2367,15 +2371,13 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="18">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="A9" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="37"/>
       <c r="C9" s="4"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="12"/>
       <c r="G9" s="1"/>
       <c r="H9" s="12"/>
@@ -2391,12 +2393,12 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B10" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="12"/>
       <c r="E10" s="4"/>
       <c r="F10" s="12"/>
@@ -2412,12 +2414,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B11" s="18">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="12"/>
@@ -2435,16 +2437,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="12"/>
       <c r="G12" s="1"/>
       <c r="H12" s="12"/>
@@ -2459,15 +2461,15 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>23</v>
+      <c r="A13" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="12"/>
       <c r="G13" s="1"/>
       <c r="H13" s="12"/>
@@ -2482,17 +2484,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>42</v>
+      <c r="A14" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="B14" s="18">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="12"/>
       <c r="E14" s="4"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="12"/>
       <c r="I14" s="1"/>
       <c r="J14" s="12"/>
@@ -2505,17 +2507,17 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>24</v>
+      <c r="A15" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="B15" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="12"/>
       <c r="I15" s="1"/>
       <c r="J15" s="12"/>
@@ -2528,20 +2530,22 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="12"/>
       <c r="G16" s="4"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="13"/>
       <c r="N16" s="3">
         <f t="shared" si="0"/>
@@ -2549,12 +2553,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="18">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="A17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="37"/>
       <c r="C17" s="4"/>
       <c r="D17" s="12"/>
       <c r="E17" s="4"/>
@@ -2572,11 +2574,11 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>26</v>
+      <c r="A18" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="18">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="12"/>
@@ -2596,7 +2598,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="18">
         <v>4.1666666666666664E-2</v>
@@ -2619,7 +2621,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B20" s="18">
         <v>4.1666666666666664E-2</v>
@@ -2642,7 +2644,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B21" s="18">
         <v>4.1666666666666664E-2</v>
@@ -2664,10 +2666,12 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="37"/>
+      <c r="A22" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="12"/>
       <c r="E22" s="4"/>
@@ -2685,22 +2689,20 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="18">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="A23" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="37"/>
       <c r="C23" s="4"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="13"/>
       <c r="N23" s="3">
         <f t="shared" si="0"/>
@@ -2709,21 +2711,21 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="18">
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
       <c r="M24" s="13"/>
       <c r="N24" s="3">
         <f t="shared" si="0"/>
@@ -2732,10 +2734,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B25" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2755,7 +2757,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B26" s="18">
         <v>8.3333333333333329E-2</v>
@@ -2777,10 +2779,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="13">
+      <c r="A27" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C27" s="4"/>
@@ -2794,14 +2796,17 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="13"/>
-      <c r="N27" s="3"/>
+      <c r="N27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="18">
-        <v>4.1666666666666664E-2</v>
+      <c r="A28" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="13">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2817,11 +2822,11 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>35</v>
+      <c r="A29" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="B29" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2838,10 +2843,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="18">
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2857,11 +2862,11 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>41</v>
+      <c r="A31" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="B31" s="18">
-        <v>4.1666666666666664E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2878,10 +2883,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B32" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2897,10 +2902,12 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="37"/>
+      <c r="A33" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2915,12 +2922,10 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="18">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="A34" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="37"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2936,10 +2941,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="18">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2956,10 +2961,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2975,10 +2980,12 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="37"/>
+      <c r="A37" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2993,15 +3000,12 @@
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="18">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C38" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="A38" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -3010,127 +3014,148 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="3">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="19">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="21"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="18">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C39" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="15"/>
       <c r="N39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="3">
-        <f>SUM(B2:B39)</f>
-        <v>3.666666666666667</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" ref="C40:M40" si="1">SUM(C2:C39)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <f>SUM(B2:B40)</f>
+        <v>3.7083333333333339</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" ref="C41:M41" si="1">SUM(C2:C40)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E41" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F41" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G41" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H41" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I40" s="3">
-        <f>SUM(I2:I39)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <f>SUM(J2:J39)</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="3">
-        <f>SUM(K2:K39)</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
+      <c r="I41" s="3">
+        <f>SUM(I2:I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <f>SUM(J2:J40)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <f>SUM(K2:K40)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M41" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M41" s="3">
-        <f>SUM(C40:M40)</f>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M42" s="3">
+        <f>SUM(C41:M41)</f>
+        <v>0.375</v>
+      </c>
+      <c r="N42" s="3">
+        <f>SUM(N2:N40)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N41" s="3">
-        <f>SUM(N2:N39)</f>
-        <v>0.33333333333333331</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:M2 C3:C20 E3:E20 G3:G20 I3:I20 L3:L20 I22:I23 I38:I39 L22:L39 E22:E39 G22:G39 C22:C39 H24:I37 F24:F37">
+  <conditionalFormatting sqref="C2:M2 C3:C21 E3:E21 G3:G21 I3:I21 L3:L21 I23:I24 I39:I40 L23:L40 E23:E40 G23:G40 C23:C40 H25:I38 F25:F38">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M2 C4:M11 C13:M20 C39:M39 C38 E38:M38 C22:M37">
+  <conditionalFormatting sqref="C2:M2 C4:M12 C14:M21 C40:M40 C39 E39:M39 C23:M38">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21 I21 G21 E21 C21">
+  <conditionalFormatting sqref="L22 I22 G22 E22 C22">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:M21">
+  <conditionalFormatting sqref="C22:M22">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38 F38 H38 M38">
+  <conditionalFormatting sqref="J39:K39 F39 H39 M39">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:K37 G24:G37 D24:D37">
+  <conditionalFormatting sqref="J25:K38 G25:G38 D25:D38">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:M39 C38 E38:M38 C2:M37">
+  <conditionalFormatting sqref="C40:M40 C39 E39:M39 C2:M38">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3149,7 +3174,7 @@
       <formula>$B2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+  <conditionalFormatting sqref="B41">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>3.66666666666667</formula>
     </cfRule>
@@ -3157,7 +3182,7 @@
       <formula>3.66666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:M40">
+  <conditionalFormatting sqref="C41:M41">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.333333333333333</formula>
     </cfRule>
@@ -3165,7 +3190,7 @@
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N39">
+  <conditionalFormatting sqref="N3:N40">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>$B3</formula>
     </cfRule>

--- a/docs/Planification.xlsx
+++ b/docs/Planification.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>Temps nécessaire</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Use-case</t>
+  </si>
+  <si>
+    <t>Fonction Rechercher</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +237,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -491,11 +500,54 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1018,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,57 +2138,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:M7 C27 G27 I27 E27 L27 D31:D38 F31:K38 C28:L28 C8:C25 E8:E25 G8:G25 I8:I25 L8:L25 L29:L39 E29:E39 I29:I39 G29:G39 C29:C39">
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:M7 C9:M16 C18:M25 C27:M39">
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26 I26 G26 E26 C26">
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:M26">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:M39">
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N39">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
       <formula>$B3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
       <formula>$B3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
       <formula>3.66666666666667</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>3.66666666666667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:M40">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
       <formula>0.333333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2147,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2298,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="13"/>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N40" si="0">SUM(C3:M3)</f>
+        <f t="shared" ref="N3:N41" si="0">SUM(C3:M3)</f>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2326,10 +2378,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="44">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C7" s="4"/>
@@ -2375,17 +2427,17 @@
         <v>36</v>
       </c>
       <c r="B9" s="37"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2399,8 +2451,12 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="12">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F10" s="12"/>
       <c r="G10" s="1"/>
       <c r="H10" s="12"/>
@@ -2411,7 +2467,7 @@
       <c r="M10" s="13"/>
       <c r="N10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333329E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2422,7 +2478,9 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="12"/>
       <c r="G11" s="1"/>
@@ -2434,7 +2492,7 @@
       <c r="M11" s="13"/>
       <c r="N11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2445,8 +2503,12 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F12" s="12"/>
       <c r="G12" s="1"/>
       <c r="H12" s="12"/>
@@ -2457,7 +2519,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2557,17 +2619,17 @@
         <v>20</v>
       </c>
       <c r="B17" s="37"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="13"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="40"/>
       <c r="N17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2581,7 +2643,9 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="12"/>
       <c r="G18" s="4"/>
@@ -2593,7 +2657,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2605,7 +2669,9 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F19" s="12"/>
       <c r="G19" s="4"/>
       <c r="H19" s="12"/>
@@ -2616,7 +2682,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2628,7 +2694,9 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F20" s="12"/>
       <c r="G20" s="4"/>
       <c r="H20" s="12"/>
@@ -2639,7 +2707,7 @@
       <c r="M20" s="13"/>
       <c r="N20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2693,17 +2761,17 @@
         <v>29</v>
       </c>
       <c r="B23" s="37"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="13"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="40"/>
       <c r="N23" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2717,7 +2785,9 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -2729,7 +2799,7 @@
       <c r="M24" s="13"/>
       <c r="N24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2741,7 +2811,9 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2752,7 +2824,7 @@
       <c r="M25" s="13"/>
       <c r="N25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2763,8 +2835,12 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2775,7 +2851,7 @@
       <c r="M26" s="13"/>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2787,7 +2863,9 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4">
+        <v>6.25E-2</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2798,7 +2876,7 @@
       <c r="M27" s="13"/>
       <c r="N27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2922,13 +3000,17 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="37"/>
+      <c r="A34" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="44">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2940,31 +3022,29 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="18">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="13"/>
+      <c r="A35" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="40"/>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="18">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2981,10 +3061,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3000,10 +3080,12 @@
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="37"/>
+      <c r="A38" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3018,184 +3100,228 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B40" s="18">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C39" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="3">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="19">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="21"/>
+      <c r="C40" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E40" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="15"/>
       <c r="N40" s="3">
         <f t="shared" si="0"/>
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
-        <f>SUM(B2:B40)</f>
-        <v>3.7083333333333339</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" ref="C41:M41" si="1">SUM(C2:C40)</f>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <f>SUM(B2:B41)</f>
+        <v>3.7500000000000004</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" ref="C42:M42" si="1">SUM(C2:C41)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D42" s="3">
         <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E41" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I42" s="3">
+        <f>SUM(I2:I41)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <f>SUM(J2:J41)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <f>SUM(K2:K41)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="3">
-        <f>SUM(I2:I40)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <f>SUM(J2:J40)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <f>SUM(K2:K40)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M41" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M42" s="3">
-        <f>SUM(C41:M41)</f>
-        <v>0.375</v>
-      </c>
-      <c r="N42" s="3">
-        <f>SUM(N2:N40)</f>
-        <v>0.33333333333333331</v>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M43" s="3">
+        <f>SUM(C42:M42)</f>
+        <v>1</v>
+      </c>
+      <c r="N43" s="3">
+        <f>SUM(N2:N41)</f>
+        <v>0.91666666666666652</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:M2 C3:C21 E3:E21 G3:G21 I3:I21 L3:L21 I23:I24 I39:I40 L23:L40 E23:E40 G23:G40 C23:C40 H25:I38 F25:F38">
+  <conditionalFormatting sqref="C2:M2 C3:C21 E3:E21 G3:G21 I3:I21 L3:L21 I23:I24 I40:I41 L23:L41 E23:E41 G23:G41 C23:C41 H25:I39 F25:F39">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:M2 C4:M12 C14:M21 C41:M41 C40 E40:M40 C23:M39">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22 I22 G22 E22 C22">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:M22">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:K40 F40 H40 M40">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:K39 G25:G39 D25:D39">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M2 C4:M12 C14:M21 C40:M40 C39 E39:M39 C23:M38">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+  <conditionalFormatting sqref="C41:M41 C40 E40:M40 C2:M39">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22 I22 G22 E22 C22">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:M22">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:K39 F39 H39 M39">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:K38 G25:G38 D25:D38">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:M40 C39 E39:M39 C2:M38">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
       <formula>$B2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>$B2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="B42">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>3.66666666666667</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>3.66666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:M41">
+  <conditionalFormatting sqref="C42:M42">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+      <formula>0.333333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>0.333333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N41">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>$B3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>$B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>0.333333333333333</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>0.333333333333333</formula>
+      <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N40">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>$B3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>$B3</formula>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Planification.xlsx
+++ b/docs/Planification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>Temps nécessaire</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>Fonction Rechercher</t>
+  </si>
+  <si>
+    <t>Edition utilisateurs (ajouter/modifier/supprimer)</t>
+  </si>
+  <si>
+    <t>Page formulaire moto</t>
+  </si>
+  <si>
+    <t>Edition motos (ajouter / modifier)</t>
   </si>
 </sst>
 </file>
@@ -428,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -503,6 +512,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1142,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="33"/>
@@ -1734,7 +1749,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="46" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="13">
@@ -2199,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,7 +2313,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="13"/>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N41" si="0">SUM(C3:M3)</f>
+        <f t="shared" ref="N3:N43" si="0">SUM(C3:M3)</f>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2532,7 +2547,9 @@
       <c r="C13" s="1"/>
       <c r="D13" s="12"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="12"/>
       <c r="I13" s="1"/>
@@ -2542,7 +2559,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2555,7 +2572,9 @@
       <c r="C14" s="1"/>
       <c r="D14" s="12"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="12"/>
       <c r="I14" s="1"/>
@@ -2565,44 +2584,43 @@
       <c r="M14" s="13"/>
       <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>42</v>
+      <c r="A15" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="B15" s="18">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="12"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="12"/>
       <c r="I15" s="1"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="1"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>24</v>
+      <c r="A16" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="B16" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="12"/>
       <c r="I16" s="1"/>
       <c r="J16" s="12"/>
@@ -2615,63 +2633,61 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="40"/>
+      <c r="A17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="18">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="12">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="13"/>
+      <c r="A18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="40"/>
       <c r="N18" s="3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="4">
+      <c r="D19" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="12"/>
       <c r="G19" s="4"/>
       <c r="H19" s="12"/>
@@ -2687,7 +2703,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="18">
         <v>4.1666666666666664E-2</v>
@@ -2712,14 +2728,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B21" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F21" s="12"/>
       <c r="G21" s="4"/>
       <c r="H21" s="12"/>
@@ -2730,12 +2748,12 @@
       <c r="M21" s="13"/>
       <c r="N21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B22" s="18">
         <v>4.1666666666666664E-2</v>
@@ -2743,7 +2761,9 @@
       <c r="C22" s="4"/>
       <c r="D22" s="12"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="12"/>
       <c r="I22" s="4"/>
@@ -2753,74 +2773,72 @@
       <c r="M22" s="13"/>
       <c r="N22" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="40"/>
+      <c r="A23" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="13"/>
       <c r="N23" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="18">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="12">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
+      <c r="A24" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="40"/>
       <c r="N24" s="3">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="18">
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4">
+      <c r="D25" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="13"/>
       <c r="N25" s="3">
         <f t="shared" si="0"/>
@@ -2829,15 +2847,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B26" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="4">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -2851,20 +2867,22 @@
       <c r="M26" s="13"/>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B27" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E27" s="4">
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2880,15 +2898,17 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="13">
+      <c r="A28" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4">
+        <v>6.25E-2</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2897,19 +2917,24 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="13"/>
-      <c r="N28" s="3"/>
+      <c r="N28" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="18">
-        <v>4.1666666666666664E-2</v>
+      <c r="A29" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="13">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2920,16 +2945,18 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>35</v>
+      <c r="A30" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="B30" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2940,16 +2967,18 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>34</v>
+      <c r="A31" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="B31" s="18">
-        <v>0.16666666666666666</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -2960,11 +2989,11 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>41</v>
+      <c r="A32" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="B32" s="18">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2980,11 +3009,11 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>49</v>
+      <c r="A33" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="B33" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3000,17 +3029,15 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="44">
+      <c r="A34" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3022,33 +3049,37 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="40"/>
+      <c r="A35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="13"/>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="18">
-        <v>0.33333333333333331</v>
+      <c r="A36" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="44">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3060,31 +3091,29 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="13"/>
+      <c r="A37" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="40"/>
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3100,39 +3129,35 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="40"/>
+      <c r="A39" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="13"/>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="18">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C40" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E40" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3140,127 +3165,173 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="3">
+      <c r="M40" s="13"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="18">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C42" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E42" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F42" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="3">
         <f t="shared" si="0"/>
-        <v>0.29166666666666663</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="19">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="3">
+      <c r="B43" s="19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="3">
-        <f>SUM(B2:B41)</f>
-        <v>3.7500000000000004</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" ref="C42:M42" si="1">SUM(C2:C41)</f>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <f>SUM(B2:B43)</f>
+        <v>3.8125000000000004</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" ref="C44:M44" si="1">SUM(C2:C43)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D44" s="3">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E44" s="3">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F44" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G44" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H44" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I44" s="3">
+        <f>SUM(I2:I43)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <f>SUM(J2:J43)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <f>SUM(K2:K43)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="3">
-        <f>SUM(I2:I41)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <f>SUM(J2:J41)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
-        <f>SUM(K2:K41)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="M44" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M42" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M43" s="3">
-        <f>SUM(C42:M42)</f>
-        <v>1</v>
-      </c>
-      <c r="N43" s="3">
-        <f>SUM(N2:N41)</f>
-        <v>0.91666666666666652</v>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M45" s="3">
+        <f>SUM(C44:M44)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N45" s="3">
+        <f>SUM(N2:N43)</f>
+        <v>1.1041666666666667</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:M2 C3:C21 E3:E21 G3:G21 I3:I21 L3:L21 I23:I24 I40:I41 L23:L41 E23:E41 G23:G41 C23:C41 H25:I39 F25:F39">
+  <conditionalFormatting sqref="C2:M2 C3:C22 E3:E22 G3:G22 I3:I22 L3:L22 I24:I25 I42:I43 L24:L43 E24:E43 G24:G43 C24:C43 H26:I41 F26:F41">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M2 C4:M12 C14:M21 C41:M41 C40 E40:M40 C23:M39">
+  <conditionalFormatting sqref="C2:M2 C4:M12 C14:M22 C43:M43 C42 E42:M42 C24:M41">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22 I22 G22 E22 C22">
+  <conditionalFormatting sqref="L23 I23 G23 E23 C23">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:M22">
+  <conditionalFormatting sqref="C23:M23">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:K40 F40 H40 M40">
+  <conditionalFormatting sqref="J42:K42 F42 H42 M42">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25:K39 G25:G39 D25:D39">
+  <conditionalFormatting sqref="J26:K41 G26:G41 D26:D41">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:M41 C40 E40:M40 C2:M39">
+  <conditionalFormatting sqref="C43:M43 C42 E42:M42 C2:M41">
     <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3279,7 +3350,7 @@
       <formula>$B2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="B44">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>3.66666666666667</formula>
     </cfRule>
@@ -3287,7 +3358,7 @@
       <formula>3.66666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:M42">
+  <conditionalFormatting sqref="C44:M44">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0.333333333333333</formula>
     </cfRule>
@@ -3295,7 +3366,7 @@
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N41">
+  <conditionalFormatting sqref="N3:N43">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>$B3</formula>
     </cfRule>
@@ -3303,17 +3374,17 @@
       <formula>$B3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/docs/Planification.xlsx
+++ b/docs/Planification.xlsx
@@ -9,18 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="1" r:id="rId1"/>
     <sheet name="Planning effectif" sheetId="5" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Planning prévisionnel'!$A$1:$N$41</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>Temps nécessaire</t>
   </si>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t>Edition motos (ajouter / modifier)</t>
+  </si>
+  <si>
+    <t>Gestion locations (validation/suppression)</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -462,7 +468,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1085,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,43 +1103,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30">
+      <c r="C1" s="29">
         <v>43592</v>
       </c>
-      <c r="D1" s="30">
+      <c r="D1" s="29">
         <v>43593</v>
       </c>
-      <c r="E1" s="30">
+      <c r="E1" s="29">
         <v>43594</v>
       </c>
-      <c r="F1" s="30">
+      <c r="F1" s="29">
         <v>43598</v>
       </c>
-      <c r="G1" s="30">
+      <c r="G1" s="29">
         <v>43599</v>
       </c>
-      <c r="H1" s="30">
+      <c r="H1" s="29">
         <v>43600</v>
       </c>
-      <c r="I1" s="30">
+      <c r="I1" s="29">
         <v>43601</v>
       </c>
-      <c r="J1" s="30">
+      <c r="J1" s="29">
         <v>43605</v>
       </c>
-      <c r="K1" s="30">
+      <c r="K1" s="29">
         <v>43606</v>
       </c>
-      <c r="L1" s="30">
+      <c r="L1" s="29">
         <v>43607</v>
       </c>
-      <c r="M1" s="31">
+      <c r="M1" s="30">
         <v>43608</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -1142,27 +1147,27 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C3" s="4">
@@ -1177,17 +1182,17 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="26"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="3">
         <f>SUM(C3:M3)</f>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C4" s="4">
@@ -1202,17 +1207,17 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="26"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="3">
         <f t="shared" ref="N4:N8" si="0">SUM(C4:M4)</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C5" s="4">
@@ -1227,17 +1232,17 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="26"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="3">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>0.125</v>
       </c>
       <c r="C6" s="4">
@@ -1252,17 +1257,17 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="26"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="3">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>0.16666666666666666</v>
       </c>
       <c r="C7" s="4"/>
@@ -1279,38 +1284,38 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="26"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="3">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="40"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="39"/>
       <c r="N8" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C9" s="4"/>
@@ -1332,10 +1337,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C10" s="4"/>
@@ -1357,10 +1362,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C11" s="4"/>
@@ -1382,10 +1387,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C12" s="4"/>
@@ -1407,10 +1412,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C13" s="4"/>
@@ -1432,10 +1437,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C14" s="4"/>
@@ -1457,10 +1462,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C15" s="1"/>
@@ -1482,31 +1487,31 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="40"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C17" s="1"/>
@@ -1528,10 +1533,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C18" s="1"/>
@@ -1553,10 +1558,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C19" s="1"/>
@@ -1578,10 +1583,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C20" s="4"/>
@@ -1603,10 +1608,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C21" s="1"/>
@@ -1628,31 +1633,31 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="40"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="39"/>
       <c r="N22" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C23" s="4"/>
@@ -1674,10 +1679,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C24" s="4"/>
@@ -1699,10 +1704,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C25" s="4"/>
@@ -1724,10 +1729,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C26" s="4"/>
@@ -1749,7 +1754,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="13">
@@ -1774,10 +1779,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C28" s="4"/>
@@ -1799,10 +1804,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C29" s="4"/>
@@ -1824,10 +1829,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>0.16666666666666666</v>
       </c>
       <c r="C30" s="4"/>
@@ -1851,10 +1856,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C31" s="4"/>
@@ -1876,10 +1881,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C32" s="4"/>
@@ -1901,31 +1906,31 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="40"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="39"/>
       <c r="N33" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>0.33333333333333331</v>
       </c>
       <c r="C34" s="4"/>
@@ -1951,10 +1956,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>0.25</v>
       </c>
       <c r="C35" s="4"/>
@@ -1980,10 +1985,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C36" s="4"/>
@@ -2005,31 +2010,31 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="40"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="39"/>
       <c r="N37" s="3">
         <f>SUM(C37:M37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="17">
         <v>0.91666666666666663</v>
       </c>
       <c r="C38" s="4"/>
@@ -2067,23 +2072,23 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="20"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="20"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="20"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="21">
+      <c r="M39" s="20">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N39" s="3">
@@ -2216,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,7 +2236,7 @@
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -2272,10 +2277,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="7"/>
@@ -2293,10 +2298,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C3" s="4">
@@ -2318,10 +2323,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C4" s="4">
@@ -2343,10 +2348,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C5" s="4">
@@ -2368,10 +2373,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>0.125</v>
       </c>
       <c r="C6" s="4">
@@ -2393,10 +2398,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="43">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C7" s="4"/>
@@ -2415,17 +2420,19 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>0.16666666666666666</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="12"/>
       <c r="E8" s="4"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="4"/>
       <c r="J8" s="12"/>
@@ -2434,35 +2441,35 @@
       <c r="M8" s="13"/>
       <c r="N8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="40"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="39"/>
       <c r="N9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C10" s="4"/>
@@ -2486,10 +2493,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C11" s="1"/>
@@ -2511,10 +2518,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C12" s="1"/>
@@ -2538,10 +2545,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C13" s="1"/>
@@ -2563,10 +2570,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C14" s="1"/>
@@ -2588,10 +2595,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C15" s="1"/>
@@ -2610,17 +2617,19 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="12"/>
       <c r="E16" s="4"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H16" s="12"/>
       <c r="I16" s="1"/>
       <c r="J16" s="12"/>
@@ -2629,21 +2638,23 @@
       <c r="M16" s="13"/>
       <c r="N16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="12"/>
       <c r="E17" s="1"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H17" s="12"/>
       <c r="I17" s="1"/>
       <c r="J17" s="12"/>
@@ -2652,35 +2663,35 @@
       <c r="M17" s="13"/>
       <c r="N17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="40"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="39"/>
       <c r="N18" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C19" s="4"/>
@@ -2702,10 +2713,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C20" s="4"/>
@@ -2727,10 +2738,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C21" s="4"/>
@@ -2752,10 +2763,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C22" s="4"/>
@@ -2777,17 +2788,19 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="12"/>
       <c r="E23" s="4"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H23" s="12"/>
       <c r="I23" s="4"/>
       <c r="J23" s="12"/>
@@ -2796,35 +2809,35 @@
       <c r="M23" s="13"/>
       <c r="N23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="40"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="39"/>
       <c r="N24" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C25" s="4"/>
@@ -2846,10 +2859,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>6.25E-2</v>
       </c>
       <c r="C26" s="4"/>
@@ -2871,10 +2884,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C27" s="4"/>
@@ -2898,10 +2911,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C28" s="4"/>
@@ -2923,7 +2936,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="13">
@@ -2945,10 +2958,10 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C30" s="4"/>
@@ -2967,10 +2980,10 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C31" s="4"/>
@@ -2989,17 +3002,19 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -3009,10 +3024,10 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <v>0.16666666666666666</v>
       </c>
       <c r="C33" s="4"/>
@@ -3029,10 +3044,10 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="18">
+      <c r="A34" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C34" s="4"/>
@@ -3049,10 +3064,10 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C35" s="4"/>
@@ -3069,10 +3084,10 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="43">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C36" s="4"/>
@@ -3091,28 +3106,28 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="40"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="39"/>
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="17">
         <v>0.33333333333333331</v>
       </c>
       <c r="C38" s="4"/>
@@ -3129,10 +3144,10 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="17">
         <v>0.25</v>
       </c>
       <c r="C39" s="4"/>
@@ -3149,10 +3164,10 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C40" s="4"/>
@@ -3169,28 +3184,28 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="40"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="39"/>
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="17">
         <v>0.91666666666666663</v>
       </c>
       <c r="C42" s="4">
@@ -3218,23 +3233,23 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="20"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="20"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="20"/>
+      <c r="H43" s="19"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="21"/>
+      <c r="M43" s="20"/>
       <c r="N43" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3263,7 +3278,7 @@
       </c>
       <c r="G44" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="1"/>
@@ -3293,11 +3308,11 @@
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M45" s="3">
         <f>SUM(C44:M44)</f>
-        <v>1.3333333333333333</v>
+        <v>1.5833333333333333</v>
       </c>
       <c r="N45" s="3">
         <f>SUM(N2:N43)</f>
-        <v>1.1041666666666667</v>
+        <v>1.3125</v>
       </c>
     </row>
   </sheetData>
@@ -3306,7 +3321,7 @@
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M2 C4:M12 C14:M22 C43:M43 C42 E42:M42 C24:M41">
+  <conditionalFormatting sqref="C2:M2 C4:M12 C43:M43 C42 E42:M42 C24:M41 C14:M22">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/docs/Planification.xlsx
+++ b/docs/Planification.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>Temps nécessaire</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>Gestion locations (validation/suppression)</t>
+  </si>
+  <si>
+    <t>Avis</t>
+  </si>
+  <si>
+    <t>Page avis</t>
+  </si>
+  <si>
+    <t>Read.me</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,10 +2228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,7 +2327,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="13"/>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N43" si="0">SUM(C3:M3)</f>
+        <f t="shared" ref="N3:N46" si="0">SUM(C3:M3)</f>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2417,7 +2426,10 @@
       <c r="K7" s="12"/>
       <c r="L7" s="4"/>
       <c r="M7" s="13"/>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -2460,10 +2472,7 @@
       <c r="K9" s="38"/>
       <c r="L9" s="40"/>
       <c r="M9" s="39"/>
-      <c r="N9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
@@ -2614,7 +2623,10 @@
       <c r="K15" s="12"/>
       <c r="L15" s="1"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="3"/>
+      <c r="N15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
@@ -2667,63 +2679,60 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="43">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B20" s="17">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="12">
+      <c r="C20" s="4"/>
+      <c r="D20" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="17">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="12"/>
       <c r="G20" s="4"/>
       <c r="H20" s="12"/>
@@ -2739,7 +2748,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="17">
         <v>4.1666666666666664E-2</v>
@@ -2764,17 +2773,17 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B22" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="12">
+      <c r="E22" s="4">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="4"/>
       <c r="H22" s="12"/>
       <c r="I22" s="4"/>
@@ -2789,7 +2798,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B23" s="17">
         <v>4.1666666666666664E-2</v>
@@ -2797,10 +2806,10 @@
       <c r="C23" s="4"/>
       <c r="D23" s="12"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="F23" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="12"/>
       <c r="I23" s="4"/>
       <c r="J23" s="12"/>
@@ -2809,74 +2818,73 @@
       <c r="M23" s="13"/>
       <c r="N23" s="3">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H24" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="17">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="12">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="17">
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4">
+      <c r="D26" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
       <c r="M26" s="13"/>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
@@ -2885,15 +2893,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B27" s="17">
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="4">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -2907,20 +2913,22 @@
       <c r="M27" s="13"/>
       <c r="N27" s="3">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B28" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E28" s="4">
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -2936,18 +2944,18 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="13">
+      <c r="A29" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="E29" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2955,14 +2963,17 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="13"/>
-      <c r="N29" s="3"/>
+      <c r="N29" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="17">
-        <v>4.1666666666666664E-2</v>
+      <c r="A30" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="13">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2977,11 +2988,14 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="13"/>
-      <c r="N30" s="3"/>
+      <c r="N30" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B31" s="17">
         <v>4.1666666666666664E-2</v>
@@ -2999,140 +3013,175 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="3"/>
+      <c r="N31" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>35</v>
+      <c r="A32" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="B32" s="17">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="F32" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="13"/>
-      <c r="N32" s="3"/>
+      <c r="N32" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="17">
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="L33" s="4"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="3"/>
+      <c r="N33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>57</v>
+      <c r="A34" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="B34" s="17">
-        <v>4.1666666666666664E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="13"/>
-      <c r="N34" s="3"/>
+      <c r="N34" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B35" s="17">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="13"/>
-      <c r="N35" s="3"/>
+      <c r="N35" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B36" s="43">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="13"/>
-      <c r="N36" s="3"/>
+      <c r="N36" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="3"/>
+      <c r="A37" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="17">
-        <v>0.33333333333333331</v>
+      <c r="A38" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="43">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -3141,34 +3190,35 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="13"/>
-      <c r="N38" s="3"/>
+      <c r="N38" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="13"/>
+      <c r="A39" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="39"/>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="17">
-        <v>8.3333333333333329E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3176,177 +3226,287 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="3"/>
+      <c r="I40" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J40" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K40" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L40" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M40" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="3"/>
+      <c r="A41" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="K41" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666669</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="17">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C42" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E42" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F42" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="15"/>
+      <c r="J42" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K42" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L42" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M42" s="13"/>
       <c r="N42" s="3">
         <f t="shared" si="0"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E44" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F44" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G44" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H44" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="J44" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K44" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L44" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M44" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="18">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="3">
-        <f>SUM(B2:B43)</f>
-        <v>3.8125000000000004</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" ref="C44:M44" si="1">SUM(C2:C43)</f>
+      <c r="B46" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="M46" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <f>SUM(B2:B46)</f>
+        <v>3.9375000000000004</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" ref="C47:M47" si="1">SUM(C2:C46)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D47" s="3">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E47" s="3">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F47" s="3">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G47" s="3">
         <f t="shared" si="1"/>
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="H44" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H47" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <f>SUM(I2:I43)</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <f>SUM(J2:J43)</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <f>SUM(K2:K43)</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I47" s="3">
+        <f>SUM(I2:I46)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="J47" s="3">
+        <f>SUM(J2:J46)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K47" s="3">
+        <f>SUM(K2:K46)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L47" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M47" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M45" s="3">
-        <f>SUM(C44:M44)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="N45" s="3">
-        <f>SUM(N2:N43)</f>
-        <v>1.3125</v>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M48" s="3">
+        <f>SUM(C47:M47)</f>
+        <v>3.666666666666667</v>
+      </c>
+      <c r="N48" s="3">
+        <v>3.6666666666666665</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:M2 C3:C22 E3:E22 G3:G22 I3:I22 L3:L22 I24:I25 I42:I43 L24:L43 E24:E43 G24:G43 C24:C43 H26:I41 F26:F41">
+  <conditionalFormatting sqref="C2:M2 C3:C23 E3:E23 G3:G23 I3:I23 L3:L23 I25:I26 I44:I46 L25:L46 E25:E46 G25:G46 C25:C46 H27:I43 F27:F43">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M2 C4:M12 C43:M43 C42 E42:M42 C24:M41 C14:M22">
+  <conditionalFormatting sqref="C2:M2 C4:M12 C46:M46 C44:C45 E44:M45 C14:M23 C25:M43">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23 I23 G23 E23 C23">
+  <conditionalFormatting sqref="L24 I24 G24 E24 C24">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:M23">
+  <conditionalFormatting sqref="C24:M24">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:K42 F42 H42 M42">
+  <conditionalFormatting sqref="J44:K45 F44:F45 H44:H45 M44:M45">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:K41 G26:G41 D26:D41">
+  <conditionalFormatting sqref="G27:G43 D27:D43 J27:K43">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:M43 C42 E42:M42 C2:M41">
+  <conditionalFormatting sqref="C46:M46 C44:C45 E44:M45 C2:M43">
     <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3365,7 +3525,7 @@
       <formula>$B2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B47">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>3.66666666666667</formula>
     </cfRule>
@@ -3373,7 +3533,7 @@
       <formula>3.66666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:M44">
+  <conditionalFormatting sqref="C47:M47">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0.333333333333333</formula>
     </cfRule>
@@ -3381,7 +3541,7 @@
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N43">
+  <conditionalFormatting sqref="N3:N46">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>$B3</formula>
     </cfRule>
@@ -3389,17 +3549,17 @@
       <formula>$B3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D44:D45">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D44:D45">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D44:D45">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
